--- a/课后作业成绩2018/作业6成绩.xlsx
+++ b/课后作业成绩2018/作业6成绩.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="87">
   <si>
     <t>南京大学  《离散数学》  课程学生名单</t>
   </si>
@@ -1304,7 +1304,7 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1601,9 @@
       <c r="I8" s="2">
         <v>85</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>90</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
